--- a/ValueSet-patient-gas-followup.xlsx
+++ b/ValueSet-patient-gas-followup.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-gas-followup.xlsx
+++ b/ValueSet-patient-gas-followup.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-gas-followup.xlsx
+++ b/ValueSet-patient-gas-followup.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-gas-followup.xlsx
+++ b/ValueSet-patient-gas-followup.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-gas-followup.xlsx
+++ b/ValueSet-patient-gas-followup.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-patient-gas-followup.xlsx
+++ b/ValueSet-patient-gas-followup.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
